--- a/biology/Médecine/Frédéric_Ferrière/Frédéric_Ferrière.xlsx
+++ b/biology/Médecine/Frédéric_Ferrière/Frédéric_Ferrière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Ferri%C3%A8re</t>
+          <t>Frédéric_Ferrière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Ferrière de son nom complet Frédéric Auguste Ferrière; né le 9 décembre 1848 à Genève, décédé le 14 juin 1924 à Genève fut un médecin suisse, membre puis vice-président du Comité international de la Croix-Rouge (CICR). 
 En fondant, dès le début de la Première Guerre mondiale, la section civile de l'Agence internationale des prisonniers de guerre (AIPG), il a été un des initiateurs déterminants de l'extension du rôle de la Croix-Rouge au bénéfice des populations civiles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Ferri%C3%A8re</t>
+          <t>Frédéric_Ferrière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études de médecine
-Frédéric Ferrière étudie à Genève et Berne, puis en Allemagne et à Vienne,  
+          <t>Études de médecine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Ferrière étudie à Genève et Berne, puis en Allemagne et à Vienne,  
 Doctorat de médecine à Heidelberg (1875). 
 Autorisation d'exercer la médecine à Genève(1878).
-Frédéric Ferrière et la Croix-Rouge
-Dès 1870, pendant la guerre de 70, et avant même la fin de ses études, il s'engagea comme infirmier dans une des premières ambulances de la Croix-Rouge auprès de son petit-cousin Louis Appia[1],[Ad48 1]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Frédéric_Ferrière</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Ferri%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Frédéric Ferrière et la Croix-Rouge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1870, pendant la guerre de 70, et avant même la fin de ses études, il s'engagea comme infirmier dans une des premières ambulances de la Croix-Rouge auprès de son petit-cousin Louis Appia,[Ad48 1]. 
 Il n'est pas possible de séparer sa carrière de médecin qu'il mena à Genève de son engagement de plus en plus prenant pour le développement de la Croix-Rouge.
 En 1875-76, envoyé au Monténégro avec Aloïs Humbert et Charles Gretz, il fut un initiateur de la Croix-Rouge dans ce pays [Ad48 2].  
 1884 entrée au comité de la Croix-Rouge. 
@@ -528,40 +580,112 @@
 Contre l'avis des autres membres du comité qui d'une part désiraient se conformer aux limites du mandat accordé à la Croix-Rouge, et d'autre part considéraient la tâche comme titanesque[Ad48 3], il mit en place la section civile de l'AIPG. Cette section, tout d'abord créée à titre privé avec l'aide de quelques proches, fut rapidement intégrée à la Croix-Rouge malgré le vide juridique. Des dizaines puis des centaines de bénévoles se joignirent rapidement aux pionniers[CICR19 1]. Cette expansion marqua un tournant décisif dans la popularité de l'institution.  
 Dès cette période Frédéric Ferrière abandonna sa pratique de médecin pour consacrer toute son énergie à l'essor de la Croix-Rouge.  
 Dès 1871, mais surtout entre 1919 et 1924, de nombreuses décorations[CICR24 1],[Ad48 4] saluèrent la valeur de son action au sein du CICR.
-Héritage
-Ce n'est que bien après son décès, en 1949, que les mandats de la Croix-Rouge concernant les civils seront enfin ratifiés. Avant lui, Louis Appia avait déjà évoqué cette nécessité. Mais il est clair que Frédéric Ferrière a eu une influence déterminante sur le chemin de ce qui aujourd'hui nous semble aller de soi[2].
-Famille
-Frédéric était le quatrième des cinq enfants de (Jean-) Emmanuel Ferrière[1] (1804-1871) et d'Augusta Reinecke (1820-1896). Son père et son grand-père étaient pasteurs, ainsi que son frère aîné Louis[1],[3]. Sa grand-mère paternelle, Suzanne Develay est décédée de la fièvre typhoïde peut-être contractée en soignant des soldats de passage à Genève en 1814. L'un des fondateurs du Comité international de la Croix-Rouge, Louis Appia, fut un neveu de cette grand-mère, un cousin germain du père de Frédéric Ferrière[1],[4].
-Frédéric Ferrière épousa en 1878, à Vienne, Adolphine Faber (1853-1932), ils eurent quatre enfants. L'aîné Adolphe Ferrière et la cadette Marianne dite Maya Ferrière ont activement participé aux débuts de l'École internationale de Genève[5] ; Frédéric dit Fredy, médecin également, fut vice-consul de Bolivie à Genève ; Charles Ferrière, entomologiste, fut conservateur du Muséum d'histoire naturelle de Genève. Une de ses nièces, Suzanne Ferrière, consacra également sa vie au développement des institutions internationales (CICR, HCR).
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fr%C3%A9d%C3%A9ric_Ferri%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frédéric_Ferrière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Ferri%C3%A8re</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Héritage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce n'est que bien après son décès, en 1949, que les mandats de la Croix-Rouge concernant les civils seront enfin ratifiés. Avant lui, Louis Appia avait déjà évoqué cette nécessité. Mais il est clair que Frédéric Ferrière a eu une influence déterminante sur le chemin de ce qui aujourd'hui nous semble aller de soi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frédéric_Ferrière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Ferri%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric était le quatrième des cinq enfants de (Jean-) Emmanuel Ferrière (1804-1871) et d'Augusta Reinecke (1820-1896). Son père et son grand-père étaient pasteurs, ainsi que son frère aîné Louis,. Sa grand-mère paternelle, Suzanne Develay est décédée de la fièvre typhoïde peut-être contractée en soignant des soldats de passage à Genève en 1814. L'un des fondateurs du Comité international de la Croix-Rouge, Louis Appia, fut un neveu de cette grand-mère, un cousin germain du père de Frédéric Ferrière,.
+Frédéric Ferrière épousa en 1878, à Vienne, Adolphine Faber (1853-1932), ils eurent quatre enfants. L'aîné Adolphe Ferrière et la cadette Marianne dite Maya Ferrière ont activement participé aux débuts de l'École internationale de Genève ; Frédéric dit Fredy, médecin également, fut vice-consul de Bolivie à Genève ; Charles Ferrière, entomologiste, fut conservateur du Muséum d'histoire naturelle de Genève. Une de ses nièces, Suzanne Ferrière, consacra également sa vie au développement des institutions internationales (CICR, HCR).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frédéric_Ferrière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Ferri%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1871 Verdienstmedaille Baden
